--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8100" windowHeight="7605"/>
+    <workbookView windowWidth="9570" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>№</t>
   </si>
@@ -56,6 +56,30 @@
   </si>
   <si>
     <t>стр. 250</t>
+  </si>
+  <si>
+    <t>Рюноскэ Акутагава</t>
+  </si>
+  <si>
+    <t>Ворота Расёион</t>
+  </si>
+  <si>
+    <t>стр. 33</t>
+  </si>
+  <si>
+    <t>Эрих Фромм</t>
+  </si>
+  <si>
+    <t>Бегство от свободы</t>
+  </si>
+  <si>
+    <t>стр. 20</t>
+  </si>
+  <si>
+    <t>В стране водяных</t>
+  </si>
+  <si>
+    <t>стр. 1</t>
   </si>
 </sst>
 </file>
@@ -63,11 +87,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="180" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,36 +103,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,61 +231,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -185,51 +238,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,97 +262,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,85 +442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,8 +474,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,17 +536,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,173 +559,176 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1007,13 +1049,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.71428571428571" customWidth="1"/>
     <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
@@ -1040,54 +1082,105 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>44492</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:5">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>44510</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>44573</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45056</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45056</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45056</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9570" windowHeight="7605"/>
+    <workbookView windowWidth="11580" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,11 +87,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -116,6 +116,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -124,6 +145,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,13 +170,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -146,15 +177,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,44 +210,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +223,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -230,24 +246,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,13 +268,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,37 +412,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,132 +448,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -462,20 +462,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,32 +488,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,7 +511,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,175 +565,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1052,7 +1067,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection activeCell="A1" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
